--- a/tests/test_case.xlsx
+++ b/tests/test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -62,57 +62,64 @@
 ничего не появиться</t>
   </si>
   <si>
+    <t>Нажать добавить;
+Пустое поле;
+Сохранить / выйти.</t>
+  </si>
+  <si>
+    <t>Нажатие добавить;
+Ввод текста;
+Нажатие сохранить / выйти.</t>
+  </si>
+  <si>
     <t>Создание задачи
 с пустыми полями,
 но с загруженным
-фото/документом</t>
+фото</t>
   </si>
   <si>
     <t>Нажать добавить;
-Пустое поле;
-Сохранить / выйти.</t>
-  </si>
-  <si>
-    <t>Нажатие добавить;
-Ввод текста;
-Нажатие сохранить / выйти.</t>
-  </si>
-  <si>
-    <t>Нажать добавить;
-Прикрепление фото/
-документа;
+Прикрепление фото;
 Нажать сохранить/
 выйти.</t>
   </si>
   <si>
     <t>Появляется задача
-с данными с фото/
-документа</t>
-  </si>
-  <si>
-    <t>Редактирование
-задача</t>
-  </si>
-  <si>
-    <t>Открытие задачи;
-Нажатие кнопки
-меню действий;
-Нажать редактировать;
-отредактировать;
-сохранить/выйти</t>
-  </si>
-  <si>
-    <t>Отредактированая
-задача</t>
-  </si>
-  <si>
-    <t>Удаление задачи</t>
-  </si>
-  <si>
-    <t>Открытие задачи;
-Нажатие кнопки
-меню действий;
-Нажать удалить</t>
+с данными с фото</t>
+  </si>
+  <si>
+    <t>Создание задачи
+с пустыми полями,
+но с загруженным
+документом</t>
+  </si>
+  <si>
+    <t>Нажать добавить;
+Прикрепление документа;
+Нажать сохранить/
+выйти.</t>
+  </si>
+  <si>
+    <t>Появляется задача
+с данными из документа</t>
+  </si>
+  <si>
+    <t>Создание задачи
+с триггером,
+геопозиции</t>
+  </si>
+  <si>
+    <t>Нажать добавить;
+Указать данные;
+Добавить триггер
+геопозиции;
+Нажать сохранить/
+выйти.</t>
+  </si>
+  <si>
+    <t>Создаётся задача
+с триггером
+и уведомлением</t>
   </si>
 </sst>
 </file>
@@ -475,7 +482,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -521,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -532,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -555,18 +562,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
